--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 GB.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>Course</t>
   </si>
@@ -88,6 +88,48 @@
     <t>5.88%</t>
   </si>
   <si>
+    <t>INTA-603</t>
+  </si>
+  <si>
+    <t>NAPPER L</t>
+  </si>
+  <si>
+    <t>78.26%</t>
+  </si>
+  <si>
+    <t>21.74%</t>
+  </si>
+  <si>
+    <t>INTA-604</t>
+  </si>
+  <si>
+    <t>TALBOT B</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>INTA-605</t>
+  </si>
+  <si>
+    <t>GUERTNER G</t>
+  </si>
+  <si>
+    <t>73.68%</t>
+  </si>
+  <si>
+    <t>15.79%</t>
+  </si>
+  <si>
+    <t>5.26%</t>
+  </si>
+  <si>
     <t>INTA-606</t>
   </si>
   <si>
@@ -163,9 +205,6 @@
     <t>90.00%</t>
   </si>
   <si>
-    <t>10.00%</t>
-  </si>
-  <si>
     <t>INTA-619</t>
   </si>
   <si>
@@ -253,9 +292,6 @@
     <t>LASALA P</t>
   </si>
   <si>
-    <t>30.00%</t>
-  </si>
-  <si>
     <t>20.00%</t>
   </si>
   <si>
@@ -301,9 +337,6 @@
     <t>84.21%</t>
   </si>
   <si>
-    <t>15.79%</t>
-  </si>
-  <si>
     <t>INTA-663</t>
   </si>
   <si>
@@ -367,9 +400,6 @@
     <t>INTA-686</t>
   </si>
   <si>
-    <t>NAPPER L</t>
-  </si>
-  <si>
     <t>81.82%</t>
   </si>
   <si>
@@ -460,6 +490,12 @@
     <t>62.50%</t>
   </si>
   <si>
+    <t>PSAA-608</t>
+  </si>
+  <si>
+    <t>WHITTEN G</t>
+  </si>
+  <si>
     <t>PSAA-610</t>
   </si>
   <si>
@@ -493,9 +529,6 @@
     <t>BOWMAN A</t>
   </si>
   <si>
-    <t>60.00%</t>
-  </si>
-  <si>
     <t>40.00%</t>
   </si>
   <si>
@@ -608,9 +641,6 @@
   </si>
   <si>
     <t>26.32%</t>
-  </si>
-  <si>
-    <t>5.26%</t>
   </si>
   <si>
     <t>10.53%</t>
@@ -992,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,7 +1168,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>3.6273</v>
+        <v>3.7857</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1156,153 +1186,153 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="n">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.609</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.6273</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="n">
         <v>3.867</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="n">
         <v>3.536</v>
       </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
         <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>3.9</v>
+        <v>3.815</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1316,21 +1346,21 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3.769</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1344,27 +1374,27 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C31" t="n">
-        <v>3.421</v>
+        <v>3.286</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
@@ -1372,21 +1402,21 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C34" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1400,21 +1430,21 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C37" t="n">
-        <v>3.679</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1428,21 +1458,21 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C40" t="n">
-        <v>3.938</v>
+        <v>3.421</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -1456,21 +1486,21 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C43" t="n">
-        <v>3.615</v>
+        <v>3.5</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -1484,21 +1514,21 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C46" t="n">
-        <v>3.75</v>
+        <v>3.679</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -1512,24 +1542,24 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C49" t="n">
-        <v>3.667</v>
+        <v>3.938</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -1540,21 +1570,21 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" t="n">
-        <v>2.9</v>
+        <v>3.615</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -1563,161 +1593,161 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="n">
         <v>3.609</v>
       </c>
-      <c r="D55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>92</v>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>3.842</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -1731,21 +1761,21 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C71" t="n">
-        <v>3.923</v>
+        <v>3.8</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
@@ -1759,21 +1789,21 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C74" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
@@ -1787,21 +1817,21 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C77" t="n">
-        <v>3.889</v>
+        <v>3.842</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
@@ -1815,21 +1845,21 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C80" t="n">
-        <v>3.714</v>
+        <v>3.923</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
@@ -1843,21 +1873,21 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C83" t="n">
-        <v>3.688</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -1871,21 +1901,21 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="C86" t="n">
-        <v>2.9545</v>
+        <v>3.889</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
@@ -1894,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -1907,13 +1937,13 @@
         <v>117</v>
       </c>
       <c r="C89" t="n">
-        <v>3.818</v>
+        <v>3.714</v>
       </c>
       <c r="D89" t="s">
         <v>118</v>
       </c>
       <c r="E89" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -1927,22 +1957,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="D92" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" t="s">
         <v>121</v>
       </c>
-      <c r="C92" t="n">
-        <v>3</v>
-      </c>
-      <c r="D92" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" t="s">
-        <v>12</v>
-      </c>
       <c r="F92" t="s">
         <v>12</v>
       </c>
@@ -1950,7 +1980,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -1963,13 +1993,13 @@
         <v>123</v>
       </c>
       <c r="C95" t="n">
-        <v>3.875</v>
+        <v>2.9545</v>
       </c>
       <c r="D95" t="s">
         <v>124</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
@@ -1978,67 +2008,26 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3.4145</v>
-      </c>
-      <c r="D96" t="s">
         <v>126</v>
       </c>
-      <c r="E96" t="s">
-        <v>126</v>
-      </c>
-      <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="B97" t="s">
+      <c r="A97" t="s">
         <v>127</v>
-      </c>
-      <c r="C97" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D97" t="s">
-        <v>59</v>
-      </c>
-      <c r="E97" t="s">
-        <v>59</v>
-      </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D98" t="s">
         <v>128</v>
       </c>
-      <c r="C98" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D98" t="s">
-        <v>59</v>
-      </c>
       <c r="E98" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
@@ -2050,156 +2039,197 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
-      <c r="B99" t="s">
-        <v>129</v>
-      </c>
-      <c r="C99" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="D99" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" t="s">
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
         <v>130</v>
       </c>
-      <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
         <v>132</v>
       </c>
-      <c r="C102" t="n">
-        <v>3.9185</v>
-      </c>
-      <c r="D102" t="s">
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
         <v>133</v>
       </c>
-      <c r="E102" t="s">
+      <c r="C104" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D104" t="s">
         <v>134</v>
       </c>
-      <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
+      <c r="E104" t="s">
+        <v>98</v>
+      </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
         <v>135</v>
       </c>
-      <c r="C103" t="n">
-        <v>3.273</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C105" t="n">
+        <v>3.4145</v>
+      </c>
+      <c r="D105" t="s">
         <v>136</v>
       </c>
-      <c r="E103" t="s">
-        <v>137</v>
-      </c>
-      <c r="F103" t="s">
-        <v>138</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>139</v>
+      <c r="E105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" t="s">
+        <v>72</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="D108" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" t="s">
         <v>140</v>
       </c>
-      <c r="C106" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D106" t="s">
-        <v>59</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
         <v>141</v>
       </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" t="s">
+      <c r="C111" t="n">
+        <v>3.9185</v>
+      </c>
+      <c r="D111" t="s">
         <v>143</v>
       </c>
-      <c r="C109" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D109" t="s">
-        <v>91</v>
-      </c>
-      <c r="E109" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="E111" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>145</v>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="D112" t="s">
         <v>146</v>
       </c>
-      <c r="C112" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>147</v>
       </c>
-      <c r="E112" t="s">
-        <v>141</v>
-      </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
@@ -2210,21 +2240,21 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="B115" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
@@ -2233,35 +2263,35 @@
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C118" t="n">
-        <v>3.757</v>
+        <v>3.6</v>
       </c>
       <c r="D118" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="E118" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
         <v>154</v>
-      </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -2274,13 +2304,13 @@
         <v>156</v>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>3.625</v>
       </c>
       <c r="D121" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
@@ -2294,21 +2324,21 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="B124" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C124" t="n">
-        <v>3.6</v>
+        <v>3.923</v>
       </c>
       <c r="D124" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="E124" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
@@ -2322,182 +2352,182 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="B127" t="s">
+        <v>161</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>65</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
         <v>162</v>
       </c>
-      <c r="C127" t="n">
+    </row>
+    <row r="130" spans="1:8">
+      <c r="B130" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.757</v>
+      </c>
+      <c r="D130" t="s">
+        <v>164</v>
+      </c>
+      <c r="E130" t="s">
+        <v>165</v>
+      </c>
+      <c r="F130" t="s">
+        <v>166</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="B133" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>65</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="B136" t="s">
+        <v>170</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" t="s">
+        <v>171</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="B139" t="s">
+        <v>173</v>
+      </c>
+      <c r="C139" t="n">
         <v>3.364</v>
       </c>
-      <c r="D127" t="s">
-        <v>163</v>
-      </c>
-      <c r="E127" t="s">
-        <v>164</v>
-      </c>
-      <c r="F127" t="s">
-        <v>165</v>
-      </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="B128" t="s">
-        <v>166</v>
-      </c>
-      <c r="C128" t="n">
+      <c r="D139" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" t="s">
+        <v>175</v>
+      </c>
+      <c r="F139" t="s">
+        <v>176</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" t="n">
         <v>3.632</v>
       </c>
-      <c r="D128" t="s">
-        <v>167</v>
-      </c>
-      <c r="E128" t="s">
-        <v>168</v>
-      </c>
-      <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="B129" t="s">
-        <v>169</v>
-      </c>
-      <c r="C129" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="D129" t="s">
-        <v>170</v>
-      </c>
-      <c r="E129" t="s">
-        <v>171</v>
-      </c>
-      <c r="F129" t="s">
-        <v>172</v>
-      </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="B132" t="s">
-        <v>174</v>
-      </c>
-      <c r="C132" t="n">
-        <v>3.701</v>
-      </c>
-      <c r="D132" t="s">
-        <v>107</v>
-      </c>
-      <c r="E132" t="s">
-        <v>175</v>
-      </c>
-      <c r="F132" t="s">
-        <v>176</v>
-      </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="B135" t="s">
+      <c r="D140" t="s">
         <v>178</v>
       </c>
-      <c r="C135" t="n">
-        <v>2.923</v>
-      </c>
-      <c r="D135" t="s">
-        <v>68</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="E140" t="s">
         <v>179</v>
       </c>
-      <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="B138" t="s">
-        <v>181</v>
-      </c>
-      <c r="C138" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D138" t="s">
-        <v>103</v>
-      </c>
-      <c r="E138" t="s">
-        <v>76</v>
-      </c>
-      <c r="F138" t="s">
-        <v>76</v>
-      </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
-      <c r="H138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
-        <v>182</v>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="D141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E141" t="s">
+        <v>182</v>
+      </c>
+      <c r="F141" t="s">
         <v>183</v>
-      </c>
-      <c r="C141" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="D141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E141" t="s">
-        <v>185</v>
-      </c>
-      <c r="F141" t="s">
-        <v>12</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
@@ -2508,24 +2538,24 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.701</v>
+      </c>
+      <c r="D144" t="s">
+        <v>118</v>
+      </c>
+      <c r="E144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F144" t="s">
         <v>187</v>
-      </c>
-      <c r="C144" t="n">
-        <v>3.929</v>
-      </c>
-      <c r="D144" t="s">
-        <v>188</v>
-      </c>
-      <c r="E144" t="s">
-        <v>189</v>
-      </c>
-      <c r="F144" t="s">
-        <v>12</v>
       </c>
       <c r="G144" t="s">
         <v>12</v>
@@ -2536,21 +2566,21 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="B147" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="C147" t="n">
-        <v>3.792</v>
+        <v>2.923</v>
       </c>
       <c r="D147" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="E147" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F147" t="s">
         <v>12</v>
@@ -2559,29 +2589,29 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="B150" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="C150" t="n">
-        <v>3.333</v>
+        <v>3.833</v>
       </c>
       <c r="D150" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="E150" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G150" t="s">
         <v>12</v>
@@ -2592,156 +2622,156 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="B153" t="s">
+        <v>194</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D153" t="s">
+        <v>195</v>
+      </c>
+      <c r="E153" t="s">
         <v>196</v>
       </c>
-      <c r="C153" t="n">
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="B156" t="s">
+        <v>198</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="D156" t="s">
+        <v>199</v>
+      </c>
+      <c r="E156" t="s">
+        <v>200</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="B159" t="s">
+        <v>150</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="D159" t="s">
+        <v>202</v>
+      </c>
+      <c r="E159" t="s">
+        <v>203</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="B162" t="s">
+        <v>168</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D162" t="s">
+        <v>205</v>
+      </c>
+      <c r="E162" t="s">
+        <v>171</v>
+      </c>
+      <c r="F162" t="s">
+        <v>44</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
+        <v>207</v>
+      </c>
+      <c r="C165" t="n">
         <v>3.21</v>
       </c>
-      <c r="D153" t="s">
-        <v>56</v>
-      </c>
-      <c r="E153" t="s">
-        <v>197</v>
-      </c>
-      <c r="F153" t="s">
-        <v>198</v>
-      </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="B154" t="s">
-        <v>183</v>
-      </c>
-      <c r="C154" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D154" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" t="s">
-        <v>200</v>
-      </c>
-      <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
-      <c r="H154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="B157" t="s">
-        <v>202</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2.889</v>
-      </c>
-      <c r="D157" t="s">
-        <v>113</v>
-      </c>
-      <c r="E157" t="s">
-        <v>75</v>
-      </c>
-      <c r="F157" t="s">
-        <v>75</v>
-      </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
-      <c r="H157" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="B160" t="s">
-        <v>204</v>
-      </c>
-      <c r="C160" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D160" t="s">
-        <v>205</v>
-      </c>
-      <c r="E160" t="s">
-        <v>115</v>
-      </c>
-      <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="B163" t="s">
-        <v>207</v>
-      </c>
-      <c r="C163" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D163" t="s">
-        <v>205</v>
-      </c>
-      <c r="E163" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" t="s">
-        <v>115</v>
-      </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
-      <c r="H163" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" t="s">
         <v>208</v>
+      </c>
+      <c r="F165" t="s">
+        <v>37</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="C166" t="n">
-        <v>4</v>
+        <v>3.667</v>
       </c>
       <c r="D166" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="F166" t="s">
         <v>12</v>
@@ -2753,146 +2783,258 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>209</v>
-      </c>
-      <c r="C167" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D167" t="s">
-        <v>200</v>
-      </c>
-      <c r="E167" t="s">
-        <v>59</v>
-      </c>
-      <c r="F167" t="s">
-        <v>115</v>
-      </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
-      <c r="H167" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>143</v>
-      </c>
-      <c r="C168" t="n">
-        <v>4</v>
-      </c>
-      <c r="D168" t="s">
-        <v>52</v>
-      </c>
-      <c r="E168" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
-      <c r="H168" t="s">
-        <v>12</v>
+      <c r="A168" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="B169" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="C169" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="D169" t="s">
+        <v>124</v>
+      </c>
+      <c r="E169" t="s">
+        <v>88</v>
+      </c>
+      <c r="F169" t="s">
+        <v>88</v>
+      </c>
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="B172" t="s">
+        <v>214</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D172" t="s">
+        <v>215</v>
+      </c>
+      <c r="E172" t="s">
+        <v>126</v>
+      </c>
+      <c r="F172" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="B175" t="s">
+        <v>217</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D175" t="s">
+        <v>215</v>
+      </c>
+      <c r="E175" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" t="s">
+        <v>126</v>
+      </c>
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="B178" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" t="n">
         <v>4</v>
       </c>
-      <c r="D169" t="s">
-        <v>52</v>
-      </c>
-      <c r="E169" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
-      <c r="H169" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="B170" t="s">
+      <c r="D178" t="s">
+        <v>65</v>
+      </c>
+      <c r="E178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>219</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D179" t="s">
         <v>210</v>
       </c>
-      <c r="C170" t="n">
+      <c r="E179" t="s">
+        <v>72</v>
+      </c>
+      <c r="F179" t="s">
+        <v>126</v>
+      </c>
+      <c r="G179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>153</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>65</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="B181" t="s">
+        <v>170</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>65</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="B182" t="s">
+        <v>220</v>
+      </c>
+      <c r="C182" t="n">
         <v>3.5</v>
       </c>
-      <c r="D170" t="s">
-        <v>59</v>
-      </c>
-      <c r="E170" t="s">
-        <v>59</v>
-      </c>
-      <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
-      <c r="H170" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="B171" t="s">
+      <c r="D182" t="s">
+        <v>72</v>
+      </c>
+      <c r="E182" t="s">
+        <v>72</v>
+      </c>
+      <c r="F182" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="B183" t="s">
         <v>13</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C183" t="n">
         <v>4</v>
       </c>
-      <c r="D171" t="s">
-        <v>52</v>
-      </c>
-      <c r="E171" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="B174" t="s">
-        <v>212</v>
-      </c>
-      <c r="C174" t="n">
+      <c r="D183" t="s">
+        <v>65</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="B186" t="s">
+        <v>222</v>
+      </c>
+      <c r="C186" t="n">
         <v>3.846</v>
       </c>
-      <c r="D174" t="s">
-        <v>213</v>
-      </c>
-      <c r="E174" t="s">
-        <v>179</v>
-      </c>
-      <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="D186" t="s">
+        <v>223</v>
+      </c>
+      <c r="E186" t="s">
+        <v>190</v>
+      </c>
+      <c r="F186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 GB.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 GB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BUSH-631</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>5.88%</t>
   </si>
   <si>
+    <t>1.92%</t>
+  </si>
+  <si>
     <t>INTA-603</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>5.26%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>INTA-606</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
     <t>37.29%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>MARIN T</t>
   </si>
   <si>
@@ -235,6 +247,9 @@
     <t>50.00%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>INTA-631</t>
   </si>
   <si>
@@ -307,6 +322,9 @@
     <t>39.13%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>HEITCHUE R</t>
   </si>
   <si>
@@ -463,6 +481,9 @@
     <t>4.55%</t>
   </si>
   <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>PSAA-603</t>
   </si>
   <si>
@@ -532,6 +553,9 @@
     <t>40.00%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>PSAA-621</t>
   </si>
   <si>
@@ -589,6 +613,9 @@
     <t>15.38%</t>
   </si>
   <si>
+    <t>7.14%</t>
+  </si>
+  <si>
     <t>PSAA-631</t>
   </si>
   <si>
@@ -614,9 +641,6 @@
   </si>
   <si>
     <t>92.86%</t>
-  </si>
-  <si>
-    <t>7.14%</t>
   </si>
   <si>
     <t>PSAA-636</t>
@@ -723,12 +747,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1022,15 +1045,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,1987 +1078,2212 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.9185</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>3.583</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>3.684</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>3.9375</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>3.7857</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
         <v>3.609</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" t="n">
         <v>3.6273</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C21" t="n">
         <v>3.867</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n">
         <v>3.536</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
         <v>3.815</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C28" t="n">
         <v>3.769</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
         <v>3.286</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C34" t="n">
         <v>3.9</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C40" t="n">
         <v>3.421</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C43" t="n">
         <v>3.5</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C46" t="n">
         <v>3.679</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C49" t="n">
         <v>3.938</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C52" t="n">
         <v>3.615</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C55" t="n">
         <v>3.75</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C58" t="n">
         <v>3.667</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C61" t="n">
         <v>2.9</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C64" t="n">
         <v>3.609</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C65" t="n">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C71" t="n">
         <v>3.8</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E71" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C77" t="n">
         <v>3.842</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C80" t="n">
         <v>3.923</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C83" t="n">
         <v>3.7</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C86" t="n">
         <v>3.889</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C89" t="n">
         <v>3.714</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C92" t="n">
         <v>3.688</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C95" t="n">
         <v>2.9545</v>
       </c>
       <c r="D95" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E95" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
         <v>3.818</v>
       </c>
       <c r="D98" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E98" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C101" t="n">
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C104" t="n">
         <v>3.875</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E104" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C105" t="n">
         <v>3.4145</v>
       </c>
       <c r="D105" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E105" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C106" t="n">
         <v>3.5</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E106" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C107" t="n">
         <v>3.5</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E107" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C108" t="n">
         <v>3.472</v>
       </c>
       <c r="D108" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E108" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C111" t="n">
         <v>3.9185</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E111" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C112" t="n">
         <v>3.273</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E112" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F112" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C115" t="n">
         <v>3.125</v>
       </c>
       <c r="D115" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E115" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C118" t="n">
         <v>3.6</v>
       </c>
       <c r="D118" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C121" t="n">
         <v>3.625</v>
       </c>
       <c r="D121" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E121" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C124" t="n">
         <v>3.923</v>
       </c>
       <c r="D124" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E124" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C127" t="n">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C130" t="n">
         <v>3.757</v>
       </c>
       <c r="D130" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E130" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F130" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C136" t="n">
         <v>3.6</v>
       </c>
       <c r="D136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E136" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H136" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C139" t="n">
         <v>3.364</v>
       </c>
       <c r="D139" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E139" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F139" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C140" t="n">
         <v>3.632</v>
       </c>
       <c r="D140" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E140" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C141" t="n">
         <v>3.118</v>
       </c>
       <c r="D141" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E141" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F141" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C144" t="n">
         <v>3.701</v>
       </c>
       <c r="D144" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E144" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F144" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C147" t="n">
         <v>2.923</v>
       </c>
       <c r="D147" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E147" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I147" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C150" t="n">
         <v>3.833</v>
       </c>
       <c r="D150" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E150" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F150" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I150" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C153" t="n">
         <v>3.546</v>
       </c>
       <c r="D153" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E153" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C156" t="n">
         <v>3.929</v>
       </c>
       <c r="D156" t="s">
+        <v>208</v>
+      </c>
+      <c r="E156" t="s">
         <v>199</v>
       </c>
-      <c r="E156" t="s">
-        <v>200</v>
-      </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H156" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C159" t="n">
         <v>3.792</v>
       </c>
       <c r="D159" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E159" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H159" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C162" t="n">
         <v>3.333</v>
       </c>
       <c r="D162" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E162" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H162" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C165" t="n">
         <v>3.21</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E165" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H165" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I165" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C166" t="n">
         <v>3.667</v>
       </c>
       <c r="D166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I166" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C169" t="n">
         <v>2.889</v>
       </c>
       <c r="D169" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E169" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F169" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C172" t="n">
         <v>3.833</v>
       </c>
       <c r="D172" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E172" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H172" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C175" t="n">
         <v>3.667</v>
       </c>
       <c r="D175" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F175" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C179" t="n">
         <v>3.167</v>
       </c>
       <c r="D179" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E179" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F179" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H181" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C182" t="n">
         <v>3.5</v>
       </c>
       <c r="D182" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E182" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H183" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C186" t="n">
         <v>3.846</v>
       </c>
       <c r="D186" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E186" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H186" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I186" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 GB.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
   <si>
     <t>Course</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>BROWN W</t>
+  </si>
+  <si>
+    <t>TACKETT-GIBSON M</t>
   </si>
   <si>
     <t>PSAA-689</t>
@@ -1022,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="B183" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="C183" t="n">
         <v>4</v>
@@ -3010,31 +3013,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>221</v>
+    <row r="184" spans="1:8">
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" t="s">
+        <v>65</v>
+      </c>
+      <c r="E184" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="B186" t="s">
+      <c r="A186" t="s">
         <v>222</v>
       </c>
-      <c r="C186" t="n">
+    </row>
+    <row r="187" spans="1:8">
+      <c r="B187" t="s">
+        <v>223</v>
+      </c>
+      <c r="C187" t="n">
         <v>3.846</v>
       </c>
-      <c r="D186" t="s">
-        <v>223</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="D187" t="s">
+        <v>224</v>
+      </c>
+      <c r="E187" t="s">
         <v>190</v>
       </c>
-      <c r="F186" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
-      <c r="H186" t="s">
+      <c r="F187" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" t="s">
         <v>12</v>
       </c>
     </row>
